--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.57069713715614</v>
+        <v>0.07529266666666666</v>
       </c>
       <c r="H2">
-        <v>7.57069713715614</v>
+        <v>0.225878</v>
       </c>
       <c r="I2">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="J2">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N2">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q2">
-        <v>405.5254462784268</v>
+        <v>4.476297912032888</v>
       </c>
       <c r="R2">
-        <v>405.5254462784268</v>
+        <v>40.286681208296</v>
       </c>
       <c r="S2">
-        <v>0.2492778995467077</v>
+        <v>0.002627356818714245</v>
       </c>
       <c r="T2">
-        <v>0.2492778995467077</v>
+        <v>0.002627356818714245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.57069713715614</v>
+        <v>0.07529266666666666</v>
       </c>
       <c r="H3">
-        <v>7.57069713715614</v>
+        <v>0.225878</v>
       </c>
       <c r="I3">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="J3">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N3">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P3">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q3">
-        <v>809.359289894198</v>
+        <v>8.069643063942888</v>
       </c>
       <c r="R3">
-        <v>809.359289894198</v>
+        <v>72.62678757548599</v>
       </c>
       <c r="S3">
-        <v>0.4975159650645418</v>
+        <v>0.004736465745867158</v>
       </c>
       <c r="T3">
-        <v>0.4975159650645418</v>
+        <v>0.004736465745867158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.57069713715614</v>
+        <v>0.07529266666666666</v>
       </c>
       <c r="H4">
-        <v>7.57069713715614</v>
+        <v>0.225878</v>
       </c>
       <c r="I4">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="J4">
-        <v>0.8786562324222152</v>
+        <v>0.008636301470765068</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N4">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q4">
-        <v>214.5137842187752</v>
+        <v>2.167956263224</v>
       </c>
       <c r="R4">
-        <v>214.5137842187752</v>
+        <v>19.511606369016</v>
       </c>
       <c r="S4">
-        <v>0.1318623678109658</v>
+        <v>0.001272478906183664</v>
       </c>
       <c r="T4">
-        <v>0.1318623678109658</v>
+        <v>0.001272478906183664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.04552483657959</v>
+        <v>7.575405333333333</v>
       </c>
       <c r="H5">
-        <v>1.04552483657959</v>
+        <v>22.726216</v>
       </c>
       <c r="I5">
-        <v>0.1213437675777847</v>
+        <v>0.868922394680866</v>
       </c>
       <c r="J5">
-        <v>0.1213437675777847</v>
+        <v>0.868922394680866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N5">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q5">
-        <v>56.00368344788708</v>
+        <v>450.3728261681458</v>
       </c>
       <c r="R5">
-        <v>56.00368344788708</v>
+        <v>4053.355435513312</v>
       </c>
       <c r="S5">
-        <v>0.0344256586236095</v>
+        <v>0.2643457024197699</v>
       </c>
       <c r="T5">
-        <v>0.0344256586236095</v>
+        <v>0.2643457024197699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04552483657959</v>
+        <v>7.575405333333333</v>
       </c>
       <c r="H6">
-        <v>1.04552483657959</v>
+        <v>22.726216</v>
       </c>
       <c r="I6">
-        <v>0.1213437675777847</v>
+        <v>0.868922394680866</v>
       </c>
       <c r="J6">
-        <v>0.1213437675777847</v>
+        <v>0.868922394680866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N6">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P6">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q6">
-        <v>111.7737539846526</v>
+        <v>811.9093108406657</v>
       </c>
       <c r="R6">
-        <v>111.7737539846526</v>
+        <v>7307.183797565992</v>
       </c>
       <c r="S6">
-        <v>0.0687077145798012</v>
+        <v>0.4765490380523033</v>
       </c>
       <c r="T6">
-        <v>0.0687077145798012</v>
+        <v>0.4765490380523032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.575405333333333</v>
+      </c>
+      <c r="H7">
+        <v>22.726216</v>
+      </c>
+      <c r="I7">
+        <v>0.868922394680866</v>
+      </c>
+      <c r="J7">
+        <v>0.868922394680866</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>28.793724</v>
+      </c>
+      <c r="N7">
+        <v>86.38117199999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1473407233977601</v>
+      </c>
+      <c r="P7">
+        <v>0.1473407233977601</v>
+      </c>
+      <c r="Q7">
+        <v>218.124130356128</v>
+      </c>
+      <c r="R7">
+        <v>1963.117173205152</v>
+      </c>
+      <c r="S7">
+        <v>0.1280276542087928</v>
+      </c>
+      <c r="T7">
+        <v>0.1280276542087928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.067463</v>
+      </c>
+      <c r="H8">
+        <v>3.202389</v>
+      </c>
+      <c r="I8">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="J8">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>59.45197733333333</v>
+      </c>
+      <c r="N8">
+        <v>178.355932</v>
+      </c>
+      <c r="O8">
+        <v>0.304222453049858</v>
+      </c>
+      <c r="P8">
+        <v>0.304222453049858</v>
+      </c>
+      <c r="Q8">
+        <v>63.462786080172</v>
+      </c>
+      <c r="R8">
+        <v>571.165074721548</v>
+      </c>
+      <c r="S8">
+        <v>0.03724939381137381</v>
+      </c>
+      <c r="T8">
+        <v>0.03724939381137381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.04552483657959</v>
-      </c>
-      <c r="H7">
-        <v>1.04552483657959</v>
-      </c>
-      <c r="I7">
-        <v>0.1213437675777847</v>
-      </c>
-      <c r="J7">
-        <v>0.1213437675777847</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>28.3347465012126</v>
-      </c>
-      <c r="N7">
-        <v>28.3347465012126</v>
-      </c>
-      <c r="O7">
-        <v>0.1500727621853398</v>
-      </c>
-      <c r="P7">
-        <v>0.1500727621853398</v>
-      </c>
-      <c r="Q7">
-        <v>29.62468120520441</v>
-      </c>
-      <c r="R7">
-        <v>29.62468120520441</v>
-      </c>
-      <c r="S7">
-        <v>0.01821039437437404</v>
-      </c>
-      <c r="T7">
-        <v>0.01821039437437404</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.067463</v>
+      </c>
+      <c r="H9">
+        <v>3.202389</v>
+      </c>
+      <c r="I9">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="J9">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>107.1770123333333</v>
+      </c>
+      <c r="N9">
+        <v>321.531037</v>
+      </c>
+      <c r="O9">
+        <v>0.548436823552382</v>
+      </c>
+      <c r="P9">
+        <v>0.5484368235523819</v>
+      </c>
+      <c r="Q9">
+        <v>114.407495116377</v>
+      </c>
+      <c r="R9">
+        <v>1029.667456047393</v>
+      </c>
+      <c r="S9">
+        <v>0.06715131975421151</v>
+      </c>
+      <c r="T9">
+        <v>0.06715131975421149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.067463</v>
+      </c>
+      <c r="H10">
+        <v>3.202389</v>
+      </c>
+      <c r="I10">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="J10">
+        <v>0.1224413038483689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>28.793724</v>
+      </c>
+      <c r="N10">
+        <v>86.38117199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1473407233977601</v>
+      </c>
+      <c r="P10">
+        <v>0.1473407233977601</v>
+      </c>
+      <c r="Q10">
+        <v>30.736235002212</v>
+      </c>
+      <c r="R10">
+        <v>276.626115019908</v>
+      </c>
+      <c r="S10">
+        <v>0.01804059028278363</v>
+      </c>
+      <c r="T10">
+        <v>0.01804059028278362</v>
       </c>
     </row>
   </sheetData>
